--- a/mainApp/tools/locale.xlsx
+++ b/mainApp/tools/locale.xlsx
@@ -14,125 +14,559 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="114">
   <si>
     <t>en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ja</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ko</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>zh-tw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>韩文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中文繁体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中文简体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>越南语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中文你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>英文你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日文你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>韩文你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中文繁体你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>越南语你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文你好1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文你好1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日文你好1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩文你好1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文繁体你好1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越南语你好1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>zh-cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timezone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>時區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>time zone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+  </si>
+  <si>
+    <r>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대</t>
+    </r>
+  </si>
+  <si>
+    <t>múi giờ</t>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞪出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>下線</t>
+  </si>
+  <si>
+    <t>오프라인</t>
+  </si>
+  <si>
+    <t>updatePassword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>update password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+  </si>
+  <si>
+    <t>パスワードを変更</t>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ổi mật khẩu</t>
+    </r>
+  </si>
+  <si>
+    <t>currentUser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>當前用戶</t>
+  </si>
+  <si>
+    <t>当前用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>current user</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng hiện tại</t>
+    </r>
+  </si>
+  <si>
+    <t>現在のユーザ</t>
+  </si>
+  <si>
+    <r>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ban</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>封禁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deban</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解封</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseInputCorrentPassword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确的密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delUser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmDel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerSuccess</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateUserGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用戶組</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmUpdate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认修改吗?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认删除吗?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户组？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delUserGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delUserGroupWarn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户组后，已经拥有该用户组权限的用户将无法重新登录，确认删除吗?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userManager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUserGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userGroupManager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rememberPassword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgotPassword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>notFoundDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>404 NOT FOUND, 页面没有找到,或者请确认子应用是否开启</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,10 +575,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -168,8 +625,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,15 +933,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -557,29 +1020,857 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/mainApp/tools/locale.xlsx
+++ b/mainApp/tools/locale.xlsx
@@ -522,43 +522,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>记住密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgotPassword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>notFoundDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>404 NOT FOUND, 页面没有找到,或者请确认子应用是否开启</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>rememberPassword</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>记住密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgotPassword</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>notFoundDesc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>404 NOT FOUND, 页面没有找到,或者请确认子应用是否开启</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>save</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1756,117 +1756,117 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="B37" t="s">
-        <v>107</v>
-      </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
         <v>108</v>
       </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
         <v>110</v>
       </c>
-      <c r="B39" t="s">
-        <v>111</v>
-      </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
         <v>112</v>
       </c>
-      <c r="B40" t="s">
-        <v>113</v>
-      </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
